--- a/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
+++ b/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Items for multiple tests" sheetId="4" r:id="rId1"/>
@@ -12427,7 +12427,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
@@ -16001,9 +16001,9 @@
   </sheetPr>
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="L4" activeCellId="1" sqref="C16 L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19333,7 +19333,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
@@ -21176,7 +21176,7 @@
   </sheetPr>
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
@@ -24239,7 +24239,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -24530,7 +24530,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -25142,7 +25142,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -25326,7 +25326,7 @@
   </sheetPr>
   <dimension ref="A1:C266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -26510,7 +26510,7 @@
   </sheetPr>
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
@@ -28900,8 +28900,8 @@
   </sheetPr>
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
@@ -37308,7 +37308,7 @@
   </sheetPr>
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
@@ -41511,7 +41511,7 @@
   </sheetPr>
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
@@ -46510,7 +46510,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
@@ -47636,7 +47636,7 @@
   </sheetPr>
   <dimension ref="A1:N267"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
@@ -52555,7 +52555,7 @@
   </sheetPr>
   <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>

--- a/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
+++ b/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,23 +29,20 @@
     <sheet name="Balances" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">Thermometers!$A$1:$E$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Viscometer Constants'!$A$1:$H$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Thermometers!$A$2:$E$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Viscometer Constants'!$A$2:$H$149</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="1668">
   <si>
     <t>Equipment</t>
   </si>
@@ -6515,6 +6512,9 @@
   </si>
   <si>
     <t>@40-0.02996, @100-0.02990</t>
+  </si>
+  <si>
+    <t>TODO ID</t>
   </si>
 </sst>
 </file>
@@ -7867,7 +7867,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8152,6 +8152,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="998" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9269,7 +9270,28 @@
     <cellStyle name="Hyperlink" xfId="998" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="273">
+  <dxfs count="279">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9631,6 +9653,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12108,6 +12151,27 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -12425,11 +12489,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:K276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12445,21 +12509,21 @@
     <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:10" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:11" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -12490,8 +12554,11 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>322</v>
@@ -12509,7 +12576,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>323</v>
@@ -12531,7 +12598,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>323</v>
@@ -12555,7 +12622,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -12571,7 +12638,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="126" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="126" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -12595,7 +12662,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -12619,7 +12686,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
@@ -12635,7 +12702,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>58</v>
@@ -12661,7 +12728,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>338</v>
@@ -12683,7 +12750,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -12703,7 +12770,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="126" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>200</v>
@@ -12729,7 +12796,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>282</v>
@@ -12747,7 +12814,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>815</v>
@@ -12773,7 +12840,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>1174</v>
@@ -15977,15 +16044,15 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="timePeriod" dxfId="272" priority="2" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="278" priority="2" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I16,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I16,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="271" priority="3" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="277" priority="3" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I16,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I16,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="timePeriod" dxfId="270" priority="1" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="276" priority="1" timePeriod="nextMonth">
       <formula>AND(MONTH(I16)=MONTH(EDATE(TODAY(),0+1)),YEAR(I16)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16002,8 +16069,8 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" activeCellId="1" sqref="C16 L4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16014,44 +16081,47 @@
     <col min="4" max="4" width="11.44140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>340</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>342</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>600</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="143" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-    </row>
-    <row r="3" spans="1:8" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
         <v>75</v>
       </c>
@@ -16073,7 +16143,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>75</v>
       </c>
@@ -16089,7 +16159,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="72">
         <v>75</v>
       </c>
@@ -16111,7 +16181,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>75</v>
       </c>
@@ -16133,7 +16203,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="48">
         <v>100</v>
       </c>
@@ -16149,7 +16219,7 @@
       <c r="G7" s="129"/>
       <c r="H7" s="48"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>100</v>
       </c>
@@ -16171,7 +16241,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>100</v>
       </c>
@@ -16193,7 +16263,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>100</v>
       </c>
@@ -16215,7 +16285,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>100</v>
       </c>
@@ -16237,7 +16307,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="48">
         <v>150</v>
       </c>
@@ -16253,7 +16323,7 @@
       <c r="G12" s="71"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>150</v>
       </c>
@@ -16275,7 +16345,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>150</v>
       </c>
@@ -16297,7 +16367,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>150</v>
       </c>
@@ -16319,7 +16389,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>200</v>
       </c>
@@ -16605,15 +16675,15 @@
       <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="144" t="s">
         <v>353</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -17714,15 +17784,15 @@
       <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="143" t="s">
+      <c r="A87" s="144" t="s">
         <v>363</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="144"/>
       <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18674,16 +18744,16 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="143" t="s">
+      <c r="A134" s="144" t="s">
         <v>601</v>
       </c>
-      <c r="B134" s="143"/>
-      <c r="C134" s="143"/>
-      <c r="D134" s="143"/>
-      <c r="E134" s="143"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="143"/>
-      <c r="H134" s="143"/>
+      <c r="B134" s="144"/>
+      <c r="C134" s="144"/>
+      <c r="D134" s="144"/>
+      <c r="E134" s="144"/>
+      <c r="F134" s="144"/>
+      <c r="G134" s="144"/>
+      <c r="H134" s="144"/>
     </row>
     <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="30"/>
@@ -18959,17 +19029,17 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="144" t="s">
+      <c r="A150" s="145" t="s">
         <v>1425</v>
       </c>
-      <c r="B150" s="144"/>
-      <c r="C150" s="144"/>
-      <c r="D150" s="144"/>
-      <c r="E150" s="144"/>
-      <c r="F150" s="144"/>
-      <c r="G150" s="144"/>
-      <c r="H150" s="144"/>
-      <c r="I150" s="144"/>
+      <c r="B150" s="145"/>
+      <c r="C150" s="145"/>
+      <c r="D150" s="145"/>
+      <c r="E150" s="145"/>
+      <c r="F150" s="145"/>
+      <c r="G150" s="145"/>
+      <c r="H150" s="145"/>
+      <c r="I150" s="145"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="48">
@@ -19305,7 +19375,7 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A134:H134"/>
@@ -19313,7 +19383,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I136:I149">
-    <cfRule type="timePeriod" dxfId="2" priority="1" stopIfTrue="1" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="4" priority="1" stopIfTrue="1" timePeriod="thisMonth">
       <formula>AND(MONTH(I136)=MONTH(TODAY()),YEAR(I136)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19331,10 +19401,10 @@
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19346,109 +19416,106 @@
     <col min="5" max="5" width="11.44140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B2" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C2" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D2" s="84" t="s">
         <v>883</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E2" s="81" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="F2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="91" t="s">
         <v>990</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B3" s="76">
         <v>641431</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C3" s="75">
         <v>42240</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D3" s="87" t="s">
         <v>991</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E3" s="82">
         <v>42424</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B4" s="76">
         <v>701102698</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C4" s="75">
         <v>42405</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D4" s="86" t="s">
         <v>1169</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E4" s="82">
         <v>42587</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
         <v>703</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B5" s="76" t="s">
         <v>704</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C5" s="75">
         <v>42579</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D5" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E5" s="82">
         <v>42763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="91" t="s">
         <v>964</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B6" s="76" t="s">
         <v>975</v>
-      </c>
-      <c r="C5" s="75">
-        <v>42233</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>963</v>
-      </c>
-      <c r="E5" s="82">
-        <v>42417</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
-        <v>703</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>1186</v>
       </c>
       <c r="C6" s="75">
         <v>42233</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E6" s="82">
         <v>42417</v>
@@ -19457,18 +19524,18 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="91" t="s">
-        <v>964</v>
+        <v>703</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>970</v>
+        <v>1186</v>
       </c>
       <c r="C7" s="75">
         <v>42233</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>971</v>
+      <c r="D7" s="87" t="s">
+        <v>969</v>
       </c>
       <c r="E7" s="82">
         <v>42417</v>
@@ -19477,18 +19544,18 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="91" t="s">
-        <v>703</v>
+        <v>964</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C8" s="75">
         <v>42233</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>973</v>
+      <c r="D8" s="85" t="s">
+        <v>971</v>
       </c>
       <c r="E8" s="82">
         <v>42417</v>
@@ -19497,204 +19564,204 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="s">
         <v>703</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C9" s="75">
-        <v>42579</v>
+        <v>42233</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>402</v>
+        <v>973</v>
       </c>
       <c r="E9" s="82">
-        <v>42763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42417</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
         <v>703</v>
       </c>
       <c r="B10" s="76" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="75">
+        <v>42579</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="82">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="91" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" s="76" t="s">
         <v>976</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C11" s="75">
         <v>42233</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D11" s="87" t="s">
         <v>977</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E11" s="82">
         <v>42417</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="91" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B12" s="76" t="s">
         <v>702</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C12" s="75">
         <v>42614</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D12" s="86" t="s">
         <v>1161</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E12" s="82">
         <v>42795</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>882</v>
-      </c>
-      <c r="B12" s="76">
-        <v>778100</v>
-      </c>
-      <c r="C12" s="75">
-        <v>42401</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>884</v>
-      </c>
-      <c r="E12" s="82">
-        <v>42583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="91" t="s">
         <v>882</v>
       </c>
       <c r="B13" s="76">
-        <v>778105</v>
+        <v>778100</v>
       </c>
       <c r="C13" s="75">
         <v>42401</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>1165</v>
+        <v>884</v>
       </c>
       <c r="E13" s="82">
         <v>42583</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
         <v>882</v>
       </c>
       <c r="B14" s="76">
-        <v>778121</v>
+        <v>778105</v>
       </c>
       <c r="C14" s="75">
         <v>42401</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E14" s="82">
         <v>42583</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
+        <v>882</v>
+      </c>
+      <c r="B15" s="76">
+        <v>778121</v>
+      </c>
+      <c r="C15" s="75">
+        <v>42401</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E15" s="82">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="91" t="s">
         <v>605</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B16" s="76">
         <v>777324</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C16" s="75">
         <v>42079</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D16" s="87">
         <v>0</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E16" s="82">
         <v>42263</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="91" t="s">
         <v>606</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C17" s="75">
         <v>41903</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D17" s="87">
         <f>213.5-212.099</f>
         <v>1.4010000000000105</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E17" s="82">
         <v>42084</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>1405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B17" s="78">
-        <v>779942</v>
-      </c>
-      <c r="C17" s="75">
-        <v>42340</v>
-      </c>
-      <c r="E17" s="82">
-        <v>42523</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D18" s="84"/>
+        <v>1120</v>
+      </c>
+      <c r="B18" s="78">
+        <v>779942</v>
+      </c>
+      <c r="C18" s="75">
+        <v>42340</v>
+      </c>
+      <c r="E18" s="82">
+        <v>42523</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
-        <v>944</v>
-      </c>
-      <c r="B19" s="76">
-        <v>167677</v>
-      </c>
-      <c r="C19" s="75">
-        <v>42245</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>945</v>
-      </c>
-      <c r="E19" s="82">
-        <v>42419</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1405</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D19" s="84"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>946</v>
+      <c r="B20" s="76">
+        <v>167677</v>
       </c>
       <c r="C20" s="75">
-        <v>42235</v>
+        <v>42245</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E20" s="82">
         <v>42419</v>
@@ -19707,14 +19774,14 @@
       <c r="A21" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="B21" s="76">
-        <v>44407</v>
+      <c r="B21" s="76" t="s">
+        <v>946</v>
       </c>
       <c r="C21" s="75">
         <v>42235</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>949</v>
+      <c r="D21" s="87" t="s">
+        <v>947</v>
       </c>
       <c r="E21" s="82">
         <v>42419</v>
@@ -19728,7 +19795,7 @@
         <v>944</v>
       </c>
       <c r="B22" s="76">
-        <v>423364</v>
+        <v>44407</v>
       </c>
       <c r="C22" s="75">
         <v>42235</v>
@@ -19748,84 +19815,87 @@
         <v>944</v>
       </c>
       <c r="B23" s="76">
-        <v>672444</v>
+        <v>423364</v>
       </c>
       <c r="C23" s="75">
-        <v>42405</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>1168</v>
+        <v>42235</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>949</v>
       </c>
       <c r="E23" s="82">
-        <v>42587</v>
+        <v>42419</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="B24" s="76" t="s">
-        <v>952</v>
+      <c r="B24" s="76">
+        <v>672444</v>
       </c>
       <c r="C24" s="75">
-        <v>42401</v>
-      </c>
-      <c r="D24" s="85" t="s">
+        <v>42405</v>
+      </c>
+      <c r="D24" s="87" t="s">
         <v>1168</v>
       </c>
       <c r="E24" s="82">
-        <v>42583</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="91" t="s">
         <v>944</v>
       </c>
-      <c r="B25" s="76">
-        <v>42088</v>
+      <c r="B25" s="76" t="s">
+        <v>952</v>
       </c>
       <c r="C25" s="75">
-        <v>42235</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>954</v>
+        <v>42401</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>1168</v>
       </c>
       <c r="E25" s="82">
-        <v>42419</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1405</v>
+        <v>42583</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
-        <v>998</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>1004</v>
+        <v>944</v>
+      </c>
+      <c r="B26" s="76">
+        <v>42088</v>
       </c>
       <c r="C26" s="75">
-        <v>42405</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>1171</v>
+        <v>42235</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>954</v>
       </c>
       <c r="E26" s="82">
-        <v>42587</v>
+        <v>42419</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="91" t="s">
         <v>998</v>
       </c>
-      <c r="B27" s="76">
-        <v>76680</v>
+      <c r="B27" s="76" t="s">
+        <v>1004</v>
       </c>
       <c r="C27" s="75">
         <v>42405</v>
       </c>
-      <c r="D27" s="87" t="s">
-        <v>1170</v>
+      <c r="D27" s="85" t="s">
+        <v>1171</v>
       </c>
       <c r="E27" s="82">
         <v>42587</v>
@@ -19833,73 +19903,70 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="s">
-        <v>874</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>875</v>
+        <v>998</v>
+      </c>
+      <c r="B28" s="76">
+        <v>76680</v>
       </c>
       <c r="C28" s="75">
-        <v>42220</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>876</v>
+        <v>42405</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>1170</v>
       </c>
       <c r="E28" s="82">
-        <v>42404</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1405</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="91" t="s">
-        <v>1005</v>
+        <v>874</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>1006</v>
+        <v>875</v>
       </c>
       <c r="C29" s="75">
-        <v>42405</v>
+        <v>42220</v>
       </c>
       <c r="D29" s="85" t="s">
-        <v>1172</v>
+        <v>876</v>
       </c>
       <c r="E29" s="82">
-        <v>42587</v>
+        <v>42404</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="91" t="s">
-        <v>960</v>
-      </c>
-      <c r="B30" s="76">
-        <v>2760</v>
+        <v>1005</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>1006</v>
       </c>
       <c r="C30" s="75">
-        <v>42233</v>
+        <v>42405</v>
       </c>
       <c r="D30" s="85" t="s">
-        <v>961</v>
+        <v>1172</v>
       </c>
       <c r="E30" s="82">
-        <v>42417</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1405</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="91" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="B31" s="76">
-        <v>19238</v>
+        <v>2760</v>
       </c>
       <c r="C31" s="75">
         <v>42233</v>
       </c>
       <c r="D31" s="85" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="E31" s="82">
         <v>42417</v>
@@ -19910,16 +19977,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="91" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B32" s="76">
-        <v>9147296</v>
+        <v>19238</v>
       </c>
       <c r="C32" s="75">
         <v>42233</v>
       </c>
-      <c r="D32" s="87" t="s">
-        <v>987</v>
+      <c r="D32" s="85" t="s">
+        <v>985</v>
       </c>
       <c r="E32" s="82">
         <v>42417</v>
@@ -19930,19 +19997,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="91" t="s">
-        <v>941</v>
+        <v>986</v>
       </c>
       <c r="B33" s="76">
-        <v>21075</v>
+        <v>9147296</v>
       </c>
       <c r="C33" s="75">
-        <v>42235</v>
+        <v>42233</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>942</v>
+        <v>987</v>
       </c>
       <c r="E33" s="82">
-        <v>42419</v>
+        <v>42417</v>
       </c>
       <c r="F33" t="s">
         <v>1405</v>
@@ -19953,53 +20020,53 @@
         <v>941</v>
       </c>
       <c r="B34" s="76">
-        <v>9731810</v>
+        <v>21075</v>
       </c>
       <c r="C34" s="75">
         <v>42235</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E34" s="82">
         <v>42419</v>
       </c>
       <c r="F34" t="s">
-        <v>1173</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="91" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B35" s="76">
-        <v>110507</v>
+        <v>9731810</v>
       </c>
       <c r="C35" s="75">
         <v>42235</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="E35" s="82">
         <v>42419</v>
       </c>
       <c r="F35" t="s">
-        <v>1405</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="91" t="s">
         <v>953</v>
       </c>
-      <c r="B36" s="87">
-        <v>407581</v>
+      <c r="B36" s="76">
+        <v>110507</v>
       </c>
       <c r="C36" s="75">
         <v>42235</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E36" s="82">
         <v>42419</v>
@@ -20012,47 +20079,47 @@
       <c r="A37" s="91" t="s">
         <v>953</v>
       </c>
-      <c r="B37" s="90" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="E37" s="82"/>
+      <c r="B37" s="87">
+        <v>407581</v>
+      </c>
+      <c r="C37" s="75">
+        <v>42235</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>955</v>
+      </c>
+      <c r="E37" s="82">
+        <v>42419</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
-        <v>995</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>996</v>
-      </c>
-      <c r="C38" s="75">
-        <v>42240</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>997</v>
-      </c>
-      <c r="E38" s="82">
-        <v>42424</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1405</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="E38" s="82"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="s">
-        <v>929</v>
+        <v>995</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>930</v>
+        <v>996</v>
       </c>
       <c r="C39" s="75">
-        <v>42235</v>
+        <v>42240</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>931</v>
+        <v>997</v>
       </c>
       <c r="E39" s="82">
-        <v>42419</v>
+        <v>42424</v>
       </c>
       <c r="F39" t="s">
         <v>1405</v>
@@ -20063,16 +20130,19 @@
         <v>929</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C40" s="75">
-        <v>42405</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>1168</v>
+        <v>42235</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>931</v>
       </c>
       <c r="E40" s="82">
-        <v>42587</v>
+        <v>42419</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -20080,19 +20150,16 @@
         <v>929</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>1187</v>
+        <v>932</v>
       </c>
       <c r="C41" s="75">
-        <v>42235</v>
+        <v>42405</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>934</v>
+        <v>1168</v>
       </c>
       <c r="E41" s="82">
-        <v>42419</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1405</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -20100,13 +20167,13 @@
         <v>929</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>935</v>
+        <v>1187</v>
       </c>
       <c r="C42" s="75">
         <v>42235</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E42" s="82">
         <v>42419</v>
@@ -20120,7 +20187,7 @@
         <v>929</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C43" s="75">
         <v>42235</v>
@@ -20137,19 +20204,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="91" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B44" s="76">
-        <v>1604</v>
+        <v>929</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>936</v>
       </c>
       <c r="C44" s="75">
-        <v>42405</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>1170</v>
+        <v>42235</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>933</v>
       </c>
       <c r="E44" s="82">
-        <v>42587</v>
+        <v>42419</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -20157,36 +20227,33 @@
         <v>1000</v>
       </c>
       <c r="B45" s="76">
-        <v>514351</v>
+        <v>1604</v>
       </c>
       <c r="C45" s="75">
-        <v>42240</v>
+        <v>42405</v>
       </c>
       <c r="D45" s="85" t="s">
-        <v>1010</v>
+        <v>1170</v>
       </c>
       <c r="E45" s="82">
-        <v>42424</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1405</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="91" t="s">
-        <v>866</v>
-      </c>
-      <c r="B46" s="95">
-        <v>2143</v>
-      </c>
-      <c r="C46" s="94">
-        <v>42206</v>
-      </c>
-      <c r="D46" s="97" t="s">
-        <v>867</v>
-      </c>
-      <c r="E46" s="96">
-        <v>42390</v>
+        <v>1000</v>
+      </c>
+      <c r="B46" s="76">
+        <v>514351</v>
+      </c>
+      <c r="C46" s="75">
+        <v>42240</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E46" s="82">
+        <v>42424</v>
       </c>
       <c r="F46" t="s">
         <v>1405</v>
@@ -20194,19 +20261,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="91" t="s">
-        <v>956</v>
-      </c>
-      <c r="B47" s="76">
-        <v>62912</v>
-      </c>
-      <c r="C47" s="75">
-        <v>42233</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>957</v>
-      </c>
-      <c r="E47" s="82">
-        <v>42417</v>
+        <v>866</v>
+      </c>
+      <c r="B47" s="95">
+        <v>2143</v>
+      </c>
+      <c r="C47" s="94">
+        <v>42206</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>867</v>
+      </c>
+      <c r="E47" s="96">
+        <v>42390</v>
       </c>
       <c r="F47" t="s">
         <v>1405</v>
@@ -20214,29 +20281,42 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="91" t="s">
+        <v>956</v>
+      </c>
+      <c r="B48" s="76">
+        <v>62912</v>
+      </c>
+      <c r="C48" s="75">
+        <v>42233</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="E48" s="82">
+        <v>42417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="91" t="s">
         <v>866</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B49" s="76">
         <v>2143</v>
       </c>
-      <c r="C48" s="75">
+      <c r="C49" s="75">
         <v>42206</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D49" s="85" t="s">
         <v>867</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E49" s="82">
         <v>42390</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="D49" s="84"/>
-      <c r="F49" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -20247,23 +20327,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="91" t="s">
-        <v>956</v>
-      </c>
-      <c r="B51" s="76">
-        <v>73177</v>
-      </c>
-      <c r="C51" s="75">
-        <v>42233</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>988</v>
-      </c>
-      <c r="E51" s="82">
-        <v>42417</v>
-      </c>
+      <c r="A51" s="91"/>
+      <c r="D51" s="84"/>
       <c r="F51" t="s">
-        <v>1405</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -20271,13 +20338,13 @@
         <v>956</v>
       </c>
       <c r="B52" s="76">
-        <v>73201</v>
+        <v>73177</v>
       </c>
       <c r="C52" s="75">
         <v>42233</v>
       </c>
       <c r="D52" s="85" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
       <c r="E52" s="82">
         <v>42417</v>
@@ -20288,19 +20355,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="91" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="B53" s="76">
-        <v>2007747</v>
+        <v>73201</v>
       </c>
       <c r="C53" s="75">
-        <v>42235</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>938</v>
+        <v>42233</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>958</v>
       </c>
       <c r="E53" s="82">
-        <v>42419</v>
+        <v>42417</v>
       </c>
       <c r="F53" t="s">
         <v>1405</v>
@@ -20308,16 +20375,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="91" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B54" s="76">
-        <v>2007740</v>
+        <v>2007747</v>
       </c>
       <c r="C54" s="75">
         <v>42235</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E54" s="82">
         <v>42419</v>
@@ -20326,65 +20393,65 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="F55" s="5" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="91" t="s">
+        <v>939</v>
+      </c>
+      <c r="B55" s="76">
+        <v>2007740</v>
+      </c>
+      <c r="C55" s="75">
+        <v>42235</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>940</v>
+      </c>
+      <c r="E55" s="82">
+        <v>42419</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="91"/>
+      <c r="F56" s="5" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="91" t="s">
-        <v>989</v>
-      </c>
-      <c r="B56" s="76">
-        <v>586978</v>
-      </c>
-      <c r="C56" s="75">
-        <v>42401</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E56" s="82">
-        <v>42583</v>
-      </c>
-      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="91" t="s">
-        <v>378</v>
+        <v>989</v>
       </c>
       <c r="B57" s="76">
-        <v>1561</v>
+        <v>586978</v>
       </c>
       <c r="C57" s="75">
-        <v>42220</v>
+        <v>42401</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>881</v>
+        <v>1167</v>
       </c>
       <c r="E57" s="82">
-        <v>42404</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1405</v>
-      </c>
+        <v>42583</v>
+      </c>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="91" t="s">
-        <v>948</v>
+        <v>378</v>
       </c>
       <c r="B58" s="76">
-        <v>2153368</v>
+        <v>1561</v>
       </c>
       <c r="C58" s="75">
-        <v>42235</v>
+        <v>42220</v>
       </c>
       <c r="D58" s="85" t="s">
-        <v>949</v>
+        <v>881</v>
       </c>
       <c r="E58" s="82">
-        <v>42419</v>
+        <v>42404</v>
       </c>
       <c r="F58" t="s">
         <v>1405</v>
@@ -20392,16 +20459,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="91" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B59" s="76">
-        <v>10056</v>
+        <v>2153368</v>
       </c>
       <c r="C59" s="75">
         <v>42235</v>
       </c>
       <c r="D59" s="85" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E59" s="82">
         <v>42419</v>
@@ -20412,53 +20479,56 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="91" t="s">
+        <v>950</v>
+      </c>
+      <c r="B60" s="76">
+        <v>10056</v>
+      </c>
+      <c r="C60" s="75">
+        <v>42235</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>951</v>
+      </c>
+      <c r="E60" s="82">
+        <v>42419</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="91" t="s">
         <v>1166</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B61" s="76" t="s">
         <v>750</v>
       </c>
-      <c r="C60" s="75">
+      <c r="C61" s="75">
         <v>42579</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D61" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="E60" s="82">
+      <c r="E61" s="82">
         <v>42763</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="93" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="93" t="s">
         <v>879</v>
       </c>
-      <c r="B61" s="76" t="s">
+      <c r="B62" s="76" t="s">
         <v>880</v>
       </c>
-      <c r="C61" s="75">
+      <c r="C62" s="75">
         <v>42682</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D62" s="97" t="s">
         <v>1604</v>
       </c>
-      <c r="E61" s="82">
+      <c r="E62" s="82">
         <v>42863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="B62" s="76">
-        <v>6339</v>
-      </c>
-      <c r="C62" s="75">
-        <v>42401</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E62" s="82">
-        <v>42583</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -20466,13 +20536,13 @@
         <v>197</v>
       </c>
       <c r="B63" s="76">
-        <v>6251</v>
+        <v>6339</v>
       </c>
       <c r="C63" s="75">
         <v>42401</v>
       </c>
       <c r="D63" s="86" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E63" s="82">
         <v>42583</v>
@@ -20480,17 +20550,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="91" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B64" s="77">
-        <v>150151080</v>
-      </c>
-      <c r="C64" s="80">
-        <v>42067</v>
-      </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="83">
-        <v>42798</v>
+        <v>197</v>
+      </c>
+      <c r="B64" s="76">
+        <v>6251</v>
+      </c>
+      <c r="C64" s="75">
+        <v>42401</v>
+      </c>
+      <c r="D64" s="86" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E64" s="82">
+        <v>42583</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -20498,7 +20570,7 @@
         <v>1030</v>
       </c>
       <c r="B65" s="77">
-        <v>150151111</v>
+        <v>150151080</v>
       </c>
       <c r="C65" s="80">
         <v>42067</v>
@@ -20513,7 +20585,7 @@
         <v>1030</v>
       </c>
       <c r="B66" s="77">
-        <v>150151073</v>
+        <v>150151111</v>
       </c>
       <c r="C66" s="80">
         <v>42067</v>
@@ -20528,7 +20600,7 @@
         <v>1030</v>
       </c>
       <c r="B67" s="77">
-        <v>150151093</v>
+        <v>150151073</v>
       </c>
       <c r="C67" s="80">
         <v>42067</v>
@@ -20543,7 +20615,7 @@
         <v>1030</v>
       </c>
       <c r="B68" s="77">
-        <v>150151107</v>
+        <v>150151093</v>
       </c>
       <c r="C68" s="80">
         <v>42067</v>
@@ -20557,13 +20629,14 @@
       <c r="A69" s="91" t="s">
         <v>1030</v>
       </c>
-      <c r="B69" s="78">
-        <v>150151112</v>
+      <c r="B69" s="77">
+        <v>150151107</v>
       </c>
       <c r="C69" s="80">
         <v>42067</v>
       </c>
-      <c r="E69" s="82">
+      <c r="D69" s="88"/>
+      <c r="E69" s="83">
         <v>42798</v>
       </c>
     </row>
@@ -20572,7 +20645,7 @@
         <v>1030</v>
       </c>
       <c r="B70" s="78">
-        <v>150151106</v>
+        <v>150151112</v>
       </c>
       <c r="C70" s="80">
         <v>42067</v>
@@ -20586,7 +20659,7 @@
         <v>1030</v>
       </c>
       <c r="B71" s="78">
-        <v>150151100</v>
+        <v>150151106</v>
       </c>
       <c r="C71" s="80">
         <v>42067</v>
@@ -20600,7 +20673,7 @@
         <v>1030</v>
       </c>
       <c r="B72" s="78">
-        <v>150151146</v>
+        <v>150151100</v>
       </c>
       <c r="C72" s="80">
         <v>42067</v>
@@ -20614,7 +20687,7 @@
         <v>1030</v>
       </c>
       <c r="B73" s="78">
-        <v>150151145</v>
+        <v>150151146</v>
       </c>
       <c r="C73" s="80">
         <v>42067</v>
@@ -20623,35 +20696,32 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="93" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="91" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B74" s="78">
+        <v>150151145</v>
+      </c>
+      <c r="C74" s="80">
+        <v>42067</v>
+      </c>
+      <c r="E74" s="82">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="93" t="s">
         <v>607</v>
       </c>
-      <c r="C74" s="75">
+      <c r="C75" s="75">
         <v>41903</v>
       </c>
-      <c r="D74" s="84" t="s">
+      <c r="D75" s="84" t="s">
         <v>608</v>
       </c>
-      <c r="E74" s="82">
+      <c r="E75" s="82">
         <v>42084</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="91" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B75" s="76" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C75" s="75">
-        <v>42369</v>
-      </c>
-      <c r="E75" s="82">
-        <v>42373</v>
       </c>
       <c r="F75" t="s">
         <v>1405</v>
@@ -20662,7 +20732,7 @@
         <v>1134</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C76" s="75">
         <v>42369</v>
@@ -20679,7 +20749,7 @@
         <v>1134</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C77" s="75">
         <v>42369</v>
@@ -20693,19 +20763,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="76">
-        <v>2409794</v>
+        <v>1134</v>
+      </c>
+      <c r="B78" s="76" t="s">
+        <v>1137</v>
       </c>
       <c r="C78" s="75">
-        <v>42220</v>
-      </c>
-      <c r="D78" s="87">
-        <v>0</v>
+        <v>42369</v>
       </c>
       <c r="E78" s="82">
-        <v>42404</v>
+        <v>42373</v>
       </c>
       <c r="F78" t="s">
         <v>1405</v>
@@ -20713,13 +20780,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="91" t="s">
-        <v>877</v>
+        <v>202</v>
+      </c>
+      <c r="B79" s="76">
+        <v>2409794</v>
       </c>
       <c r="C79" s="75">
         <v>42220</v>
       </c>
-      <c r="D79" s="87" t="s">
-        <v>878</v>
+      <c r="D79" s="87">
+        <v>0</v>
       </c>
       <c r="E79" s="82">
         <v>42404</v>
@@ -20730,87 +20800,84 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="76">
-        <v>39330</v>
+        <v>877</v>
       </c>
       <c r="C80" s="75">
-        <v>42207</v>
-      </c>
-      <c r="D80" s="87">
-        <v>0</v>
+        <v>42220</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>878</v>
       </c>
       <c r="E80" s="82">
-        <v>42391</v>
+        <v>42404</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="91" t="s">
-        <v>1535</v>
+        <v>178</v>
       </c>
       <c r="B81" s="76">
-        <v>39332</v>
+        <v>39330</v>
       </c>
       <c r="C81" s="75">
-        <v>42640</v>
+        <v>42207</v>
       </c>
       <c r="D81" s="87">
         <v>0</v>
       </c>
       <c r="E81" s="82">
-        <v>42816</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="91" t="s">
-        <v>178</v>
+        <v>1535</v>
       </c>
       <c r="B82" s="76">
-        <v>39336</v>
+        <v>39332</v>
       </c>
       <c r="C82" s="75">
-        <v>42207</v>
+        <v>42640</v>
       </c>
       <c r="D82" s="87">
         <v>0</v>
       </c>
       <c r="E82" s="82">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="76">
+        <v>39336</v>
+      </c>
+      <c r="C83" s="75">
+        <v>42207</v>
+      </c>
+      <c r="D83" s="87">
+        <v>0</v>
+      </c>
+      <c r="E83" s="82">
         <v>42391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="92" t="s">
-        <v>981</v>
-      </c>
-      <c r="B83" s="76" t="s">
-        <v>982</v>
-      </c>
-      <c r="C83" s="75">
-        <v>42233</v>
-      </c>
-      <c r="D83" s="85" t="s">
-        <v>983</v>
-      </c>
-      <c r="E83" s="82">
-        <v>42417</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="92" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C84" s="75">
         <v>42233</v>
       </c>
       <c r="D84" s="85" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E84" s="82">
         <v>42417</v>
@@ -20821,19 +20888,19 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="92" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="C85" s="75">
-        <v>42240</v>
+        <v>42233</v>
       </c>
       <c r="D85" s="85" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="E85" s="82">
-        <v>42424</v>
+        <v>42417</v>
       </c>
       <c r="F85" t="s">
         <v>1405</v>
@@ -20841,16 +20908,16 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="92" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C86" s="79">
+        <v>1008</v>
+      </c>
+      <c r="C86" s="75">
         <v>42240</v>
       </c>
       <c r="D86" s="85" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E86" s="82">
         <v>42424</v>
@@ -20860,20 +20927,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="91" t="s">
-        <v>967</v>
+      <c r="A87" s="92" t="s">
+        <v>1001</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>968</v>
-      </c>
-      <c r="C87" s="75">
-        <v>42233</v>
-      </c>
-      <c r="D87" s="87" t="s">
-        <v>962</v>
+        <v>1002</v>
+      </c>
+      <c r="C87" s="79">
+        <v>42240</v>
+      </c>
+      <c r="D87" s="85" t="s">
+        <v>1003</v>
       </c>
       <c r="E87" s="82">
-        <v>42417</v>
+        <v>42424</v>
       </c>
       <c r="F87" t="s">
         <v>1405</v>
@@ -20881,16 +20948,16 @@
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="91" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C88" s="75">
         <v>42233</v>
       </c>
-      <c r="D88" s="85" t="s">
-        <v>959</v>
+      <c r="D88" s="87" t="s">
+        <v>962</v>
       </c>
       <c r="E88" s="82">
         <v>42417</v>
@@ -20901,19 +20968,19 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="91" t="s">
-        <v>999</v>
-      </c>
-      <c r="B89" s="76">
-        <v>46656</v>
+        <v>965</v>
+      </c>
+      <c r="B89" s="76" t="s">
+        <v>966</v>
       </c>
       <c r="C89" s="75">
-        <v>42240</v>
+        <v>42233</v>
       </c>
       <c r="D89" s="85" t="s">
-        <v>997</v>
+        <v>959</v>
       </c>
       <c r="E89" s="82">
-        <v>42424</v>
+        <v>42417</v>
       </c>
       <c r="F89" t="s">
         <v>1405</v>
@@ -20921,16 +20988,16 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="91" t="s">
-        <v>992</v>
-      </c>
-      <c r="B90" s="76" t="s">
-        <v>993</v>
+        <v>999</v>
+      </c>
+      <c r="B90" s="76">
+        <v>46656</v>
       </c>
       <c r="C90" s="75">
         <v>42240</v>
       </c>
-      <c r="D90" s="87" t="s">
-        <v>994</v>
+      <c r="D90" s="85" t="s">
+        <v>997</v>
       </c>
       <c r="E90" s="82">
         <v>42424</v>
@@ -20941,80 +21008,83 @@
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="91" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B91" s="76">
-        <v>31059</v>
+        <v>992</v>
+      </c>
+      <c r="B91" s="76" t="s">
+        <v>993</v>
+      </c>
+      <c r="C91" s="75">
+        <v>42240</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>994</v>
+      </c>
+      <c r="E91" s="82">
+        <v>42424</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="91" t="s">
-        <v>710</v>
-      </c>
-      <c r="B92" s="76" t="s">
-        <v>711</v>
-      </c>
-      <c r="C92" s="75">
-        <v>42045</v>
-      </c>
-      <c r="D92" s="87">
-        <v>0.4</v>
-      </c>
-      <c r="E92" s="82">
-        <v>42226</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1405</v>
+        <v>1185</v>
+      </c>
+      <c r="B92" s="76">
+        <v>31059</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="91" t="s">
+        <v>710</v>
+      </c>
+      <c r="B93" s="76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C93" s="75">
+        <v>42045</v>
+      </c>
+      <c r="D93" s="87">
+        <v>0.4</v>
+      </c>
+      <c r="E93" s="82">
+        <v>42226</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="91" t="s">
         <v>1181</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B94" s="76" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="76" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B94" s="76">
-        <v>539823</v>
-      </c>
-      <c r="C94" s="94">
-        <v>42424</v>
-      </c>
-      <c r="D94" s="87" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E94" s="96">
-        <v>42606</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="76" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B95" s="76">
+        <v>539823</v>
+      </c>
+      <c r="C95" s="94">
+        <v>42424</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E95" s="96">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="76" t="s">
         <v>1203</v>
       </c>
-      <c r="B95" s="76">
+      <c r="B96" s="76">
         <v>12044</v>
-      </c>
-      <c r="C95" s="94">
-        <v>42432</v>
-      </c>
-      <c r="D95" s="87" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E95" s="96">
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="95" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B96" s="95">
-        <v>12076</v>
       </c>
       <c r="C96" s="94">
         <v>42432</v>
@@ -21031,7 +21101,7 @@
         <v>1203</v>
       </c>
       <c r="B97" s="95">
-        <v>12039</v>
+        <v>12076</v>
       </c>
       <c r="C97" s="94">
         <v>42432</v>
@@ -21044,34 +21114,34 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="76" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B98" s="76" t="s">
-        <v>1473</v>
+      <c r="A98" s="95" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B98" s="95">
+        <v>12039</v>
       </c>
       <c r="C98" s="94">
-        <v>42606</v>
+        <v>42432</v>
       </c>
       <c r="D98" s="87" t="s">
-        <v>1474</v>
+        <v>1204</v>
       </c>
       <c r="E98" s="96">
-        <v>42790</v>
+        <v>42616</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="76" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B99" s="76">
-        <v>12044</v>
+        <v>1472</v>
+      </c>
+      <c r="B99" s="76" t="s">
+        <v>1473</v>
       </c>
       <c r="C99" s="94">
         <v>42606</v>
       </c>
       <c r="D99" s="87" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E99" s="96">
         <v>42790</v>
@@ -21079,10 +21149,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="76" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B100" s="76">
-        <v>11911</v>
+        <v>12044</v>
       </c>
       <c r="C100" s="94">
         <v>42606</v>
@@ -21096,16 +21166,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="76" t="s">
-        <v>605</v>
+        <v>1477</v>
       </c>
       <c r="B101" s="76">
-        <v>90960</v>
+        <v>11911</v>
       </c>
       <c r="C101" s="94">
         <v>42606</v>
       </c>
       <c r="D101" s="87" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E101" s="96">
         <v>42790</v>
@@ -21113,24 +21183,27 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="B102" s="76">
+        <v>90960</v>
+      </c>
+      <c r="C102" s="94">
+        <v>42606</v>
+      </c>
+      <c r="D102" s="87" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E102" s="96">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="76" t="s">
         <v>1511</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B103" s="76" t="s">
         <v>1513</v>
-      </c>
-      <c r="C102" s="94">
-        <v>42627</v>
-      </c>
-      <c r="E102" s="96">
-        <v>42992</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="95" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B103" s="95" t="s">
-        <v>1512</v>
       </c>
       <c r="C103" s="94">
         <v>42627</v>
@@ -21140,28 +21213,53 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="95" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B104" s="95" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C104" s="94">
+        <v>42627</v>
+      </c>
+      <c r="E104" s="96">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="76" t="s">
         <v>1551</v>
       </c>
-      <c r="B104" s="76" t="s">
+      <c r="B105" s="76" t="s">
         <v>1552</v>
       </c>
-      <c r="C104" s="94">
+      <c r="C105" s="94">
         <v>42640</v>
       </c>
-      <c r="E104" s="96">
+      <c r="E105" s="96">
         <v>42821</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(E57,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(E57,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(E58,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(E58,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(E62,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(E62,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(E63,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(E63,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21174,11 +21272,11 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N249"/>
+  <dimension ref="A1:O249"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21197,21 +21295,21 @@
     <col min="14" max="14" width="22.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21254,8 +21352,11 @@
       <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -21287,7 +21388,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -21309,7 +21410,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F5" s="41">
         <v>150443489</v>
       </c>
@@ -21321,7 +21422,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F6" s="41">
         <v>150443479</v>
       </c>
@@ -21333,7 +21434,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -21345,7 +21446,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -21357,7 +21458,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -21369,7 +21470,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -21381,7 +21482,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -21393,7 +21494,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -21405,7 +21506,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -21417,7 +21518,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -24237,10 +24338,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24251,54 +24352,57 @@
     <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>705</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>706</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="9">
         <v>42198</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="9">
         <v>42229</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>708</v>
-      </c>
-      <c r="C3" s="9">
-        <v>42688</v>
-      </c>
-      <c r="D3" s="9">
-        <v>42718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4">
-        <v>66742</v>
       </c>
       <c r="C4" s="9">
         <v>42688</v>
@@ -24307,9 +24411,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>709</v>
+        <v>404</v>
+      </c>
+      <c r="B5">
+        <v>66742</v>
       </c>
       <c r="C5" s="9">
         <v>42688</v>
@@ -24318,74 +24425,71 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>886</v>
-      </c>
-      <c r="B6" t="s">
-        <v>887</v>
+        <v>709</v>
       </c>
       <c r="C6" s="9">
-        <v>42537</v>
+        <v>42688</v>
       </c>
       <c r="D6" s="9">
-        <v>42567</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>886</v>
       </c>
       <c r="B7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42537</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B8" t="s">
         <v>892</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <v>42688</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>42718</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>888</v>
-      </c>
-      <c r="B8" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="9">
-        <v>42661</v>
-      </c>
-      <c r="D8" s="9">
-        <v>42692</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>888</v>
       </c>
       <c r="B9" t="s">
+        <v>889</v>
+      </c>
+      <c r="C9" s="9">
+        <v>42661</v>
+      </c>
+      <c r="D9" s="9">
+        <v>42692</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>888</v>
+      </c>
+      <c r="B10" t="s">
         <v>1199</v>
-      </c>
-      <c r="C9" s="9">
-        <v>42688</v>
-      </c>
-      <c r="D9" s="9">
-        <v>42718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>890</v>
-      </c>
-      <c r="B10" t="s">
-        <v>891</v>
       </c>
       <c r="C10" s="9">
         <v>42688</v>
@@ -24394,12 +24498,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>890</v>
       </c>
       <c r="B11" t="s">
-        <v>1200</v>
+        <v>891</v>
       </c>
       <c r="C11" s="9">
         <v>42688</v>
@@ -24408,12 +24512,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B12" t="s">
-        <v>894</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="9">
         <v>42688</v>
@@ -24422,12 +24526,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>893</v>
       </c>
       <c r="B13" t="s">
-        <v>1197</v>
+        <v>894</v>
       </c>
       <c r="C13" s="9">
         <v>42688</v>
@@ -24436,12 +24540,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>893</v>
       </c>
       <c r="B14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C14" s="9">
         <v>42688</v>
@@ -24450,12 +24554,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>893</v>
       </c>
       <c r="B15" t="s">
-        <v>707</v>
+        <v>1198</v>
       </c>
       <c r="C15" s="9">
         <v>42688</v>
@@ -24464,12 +24568,12 @@
         <v>42718</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1215</v>
+        <v>893</v>
       </c>
       <c r="B16" t="s">
-        <v>1216</v>
+        <v>707</v>
       </c>
       <c r="C16" s="9">
         <v>42688</v>
@@ -24480,10 +24584,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1398</v>
+        <v>1215</v>
       </c>
       <c r="B17" t="s">
-        <v>1399</v>
+        <v>1216</v>
       </c>
       <c r="C17" s="9">
         <v>42688</v>
@@ -24494,32 +24598,49 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B18" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" t="s">
-        <v>1414</v>
+        <v>1399</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42688</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42718</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>1402</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>1403</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <v>42688</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>42718</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -24528,10 +24649,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24543,41 +24664,43 @@
     <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="B2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C2" s="9">
-        <v>42626</v>
-      </c>
-      <c r="D2" s="9">
-        <v>42991</v>
-      </c>
-      <c r="E2" s="117"/>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>736</v>
       </c>
       <c r="B3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C3" s="9">
         <v>42626</v>
@@ -24587,12 +24710,12 @@
       </c>
       <c r="E3" s="117"/>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>736</v>
       </c>
       <c r="B4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C4" s="9">
         <v>42626</v>
@@ -24602,12 +24725,12 @@
       </c>
       <c r="E4" s="117"/>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>736</v>
       </c>
       <c r="B5" t="s">
-        <v>1514</v>
+        <v>739</v>
       </c>
       <c r="C5" s="9">
         <v>42626</v>
@@ -24617,12 +24740,12 @@
       </c>
       <c r="E5" s="117"/>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>736</v>
       </c>
       <c r="B6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C6" s="9">
         <v>42626</v>
@@ -24632,12 +24755,12 @@
       </c>
       <c r="E6" s="117"/>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>736</v>
       </c>
       <c r="B7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C7" s="9">
         <v>42626</v>
@@ -24647,12 +24770,12 @@
       </c>
       <c r="E7" s="117"/>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>1517</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C8" s="9">
         <v>42626</v>
@@ -24662,12 +24785,12 @@
       </c>
       <c r="E8" s="117"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1517</v>
       </c>
       <c r="B9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C9" s="9">
         <v>42626</v>
@@ -24677,12 +24800,12 @@
       </c>
       <c r="E9" s="117"/>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1517</v>
       </c>
       <c r="B10" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C10" s="9">
         <v>42626</v>
@@ -24692,12 +24815,12 @@
       </c>
       <c r="E10" s="117"/>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1517</v>
       </c>
       <c r="B11" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C11" s="9">
         <v>42626</v>
@@ -24707,51 +24830,52 @@
       </c>
       <c r="E11" s="117"/>
     </row>
-    <row r="12" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B12">
-        <v>140673378</v>
+        <v>1517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42626</v>
       </c>
       <c r="D12" s="9">
-        <v>42656</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42991</v>
+      </c>
+      <c r="E12" s="117"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>804</v>
       </c>
       <c r="B13">
-        <v>140673385</v>
+        <v>140673378</v>
       </c>
       <c r="D13" s="9">
-        <v>42657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>42656</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>804</v>
       </c>
       <c r="B14">
-        <v>140673392</v>
+        <v>140673385</v>
       </c>
       <c r="D14" s="9">
-        <v>42656</v>
-      </c>
-      <c r="E14" s="117" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>804</v>
       </c>
       <c r="B15">
-        <v>140673384</v>
+        <v>140673392</v>
       </c>
       <c r="D15" s="9">
         <v>42656</v>
@@ -24760,12 +24884,12 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>804</v>
       </c>
       <c r="B16">
-        <v>140673368</v>
+        <v>140673384</v>
       </c>
       <c r="D16" s="9">
         <v>42656</v>
@@ -24779,7 +24903,7 @@
         <v>804</v>
       </c>
       <c r="B17">
-        <v>140673401</v>
+        <v>140673368</v>
       </c>
       <c r="D17" s="9">
         <v>42656</v>
@@ -24793,7 +24917,7 @@
         <v>804</v>
       </c>
       <c r="B18">
-        <v>140673398</v>
+        <v>140673401</v>
       </c>
       <c r="D18" s="9">
         <v>42656</v>
@@ -24807,10 +24931,10 @@
         <v>804</v>
       </c>
       <c r="B19">
-        <v>150084413</v>
+        <v>140673398</v>
       </c>
       <c r="D19" s="9">
-        <v>42771</v>
+        <v>42656</v>
       </c>
       <c r="E19" s="117" t="s">
         <v>1491</v>
@@ -24821,7 +24945,7 @@
         <v>804</v>
       </c>
       <c r="B20">
-        <v>150084411</v>
+        <v>150084413</v>
       </c>
       <c r="D20" s="9">
         <v>42771</v>
@@ -24835,7 +24959,7 @@
         <v>804</v>
       </c>
       <c r="B21">
-        <v>150084401</v>
+        <v>150084411</v>
       </c>
       <c r="D21" s="9">
         <v>42771</v>
@@ -24849,7 +24973,7 @@
         <v>804</v>
       </c>
       <c r="B22">
-        <v>150084404</v>
+        <v>150084401</v>
       </c>
       <c r="D22" s="9">
         <v>42771</v>
@@ -24860,13 +24984,13 @@
     </row>
     <row r="23" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>1097</v>
+        <v>804</v>
       </c>
       <c r="B23">
-        <v>150501283</v>
+        <v>150084404</v>
       </c>
       <c r="D23" s="9">
-        <v>42917</v>
+        <v>42771</v>
       </c>
       <c r="E23" s="117" t="s">
         <v>1491</v>
@@ -24877,7 +25001,7 @@
         <v>1097</v>
       </c>
       <c r="B24">
-        <v>150501284</v>
+        <v>150501283</v>
       </c>
       <c r="D24" s="9">
         <v>42917</v>
@@ -24886,55 +25010,58 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B25">
-        <v>150501277</v>
+        <v>150501284</v>
       </c>
       <c r="D25" s="9">
         <v>42917</v>
       </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="117" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B26">
-        <v>150501286</v>
+        <v>150501277</v>
       </c>
       <c r="D26" s="9">
         <v>42917</v>
       </c>
-      <c r="E26" s="117" t="s">
-        <v>1491</v>
-      </c>
+      <c r="E26" s="117"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B27">
-        <v>140755808</v>
+        <v>150501286</v>
       </c>
       <c r="D27" s="9">
-        <v>42692</v>
+        <v>42917</v>
       </c>
       <c r="E27" s="117" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B28">
-        <v>150501279</v>
+        <v>140755808</v>
       </c>
       <c r="D28" s="9">
-        <v>42917</v>
+        <v>42692</v>
+      </c>
+      <c r="E28" s="117" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -24942,7 +25069,7 @@
         <v>1097</v>
       </c>
       <c r="B29">
-        <v>150501285</v>
+        <v>150501279</v>
       </c>
       <c r="D29" s="9">
         <v>42917</v>
@@ -24953,7 +25080,7 @@
         <v>1097</v>
       </c>
       <c r="B30">
-        <v>150501280</v>
+        <v>150501285</v>
       </c>
       <c r="D30" s="9">
         <v>42917</v>
@@ -24964,7 +25091,7 @@
         <v>1097</v>
       </c>
       <c r="B31">
-        <v>150501281</v>
+        <v>150501280</v>
       </c>
       <c r="D31" s="9">
         <v>42917</v>
@@ -24975,10 +25102,10 @@
         <v>1097</v>
       </c>
       <c r="B32">
-        <v>151859815</v>
+        <v>150501281</v>
       </c>
       <c r="D32" s="9">
-        <v>43055</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -24986,7 +25113,7 @@
         <v>1097</v>
       </c>
       <c r="B33">
-        <v>151859818</v>
+        <v>151859815</v>
       </c>
       <c r="D33" s="9">
         <v>43055</v>
@@ -24997,10 +25124,10 @@
         <v>1097</v>
       </c>
       <c r="B34">
-        <v>160298478</v>
+        <v>151859818</v>
       </c>
       <c r="D34" s="9">
-        <v>43181</v>
+        <v>43055</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -25008,7 +25135,7 @@
         <v>1097</v>
       </c>
       <c r="B35">
-        <v>160298481</v>
+        <v>160298478</v>
       </c>
       <c r="D35" s="9">
         <v>43181</v>
@@ -25019,10 +25146,10 @@
         <v>1097</v>
       </c>
       <c r="B36">
-        <v>160440291</v>
+        <v>160298481</v>
       </c>
       <c r="D36" s="9">
-        <v>43232</v>
+        <v>43181</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -25030,7 +25157,7 @@
         <v>1097</v>
       </c>
       <c r="B37">
-        <v>160440292</v>
+        <v>160440291</v>
       </c>
       <c r="D37" s="9">
         <v>43232</v>
@@ -25041,61 +25168,61 @@
         <v>1097</v>
       </c>
       <c r="B38">
-        <v>160440293</v>
+        <v>160440292</v>
       </c>
       <c r="D38" s="9">
         <v>43232</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B39">
-        <v>160440294</v>
+        <v>160440293</v>
       </c>
       <c r="D39" s="9">
         <v>43232</v>
       </c>
-      <c r="E39" s="117" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B40">
+        <v>160440294</v>
+      </c>
+      <c r="D40" s="9">
+        <v>43232</v>
+      </c>
+      <c r="E40" s="117" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="117" t="s">
+    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="117" t="s">
         <v>1492</v>
       </c>
-      <c r="B40" s="119">
+      <c r="B41" s="119">
         <v>1447320</v>
       </c>
-      <c r="C40" s="120">
+      <c r="C41" s="120">
         <v>42179</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D41" s="120">
         <v>42910</v>
       </c>
-      <c r="E40" s="118"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B41">
-        <v>160612861</v>
-      </c>
-      <c r="D41" s="9">
-        <v>43302</v>
-      </c>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="B42">
-        <v>160612863</v>
+        <v>160612861</v>
       </c>
       <c r="D42" s="9">
-        <v>43309</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -25103,10 +25230,10 @@
         <v>1097</v>
       </c>
       <c r="B43">
-        <v>160612859</v>
+        <v>160612863</v>
       </c>
       <c r="D43" s="9">
-        <v>43302</v>
+        <v>43309</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -25114,10 +25241,10 @@
         <v>1097</v>
       </c>
       <c r="B44">
-        <v>160440295</v>
+        <v>160612859</v>
       </c>
       <c r="D44" s="9">
-        <v>43232</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -25125,13 +25252,27 @@
         <v>1097</v>
       </c>
       <c r="B45">
+        <v>160440295</v>
+      </c>
+      <c r="D45" s="9">
+        <v>43232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B46">
         <v>160612860</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>43302</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -25140,10 +25281,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25154,72 +25295,69 @@
     <col min="6" max="6" width="15.44140625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:10" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
         <v>1148</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B2" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D2" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E2" s="73" t="s">
         <v>1149</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F2" s="73" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="G2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>1151</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B3" s="74">
         <v>1007</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C3" s="74" t="s">
         <v>1152</v>
       </c>
-      <c r="D2" s="75">
-        <v>42605</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>909</v>
-      </c>
-      <c r="F2" s="75">
-        <v>42789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B3" s="74">
-        <v>1115323171</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="94">
+      <c r="D3" s="75">
         <v>42605</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>909</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="75">
         <v>42789</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B4" s="74">
-        <v>1118513346</v>
+        <v>1115323171</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>59</v>
@@ -25234,15 +25372,15 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>1073</v>
+        <v>1154</v>
+      </c>
+      <c r="B5" s="74">
+        <v>1118513346</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="D5" s="94">
         <v>42605</v>
@@ -25254,12 +25392,12 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B6" s="74">
-        <v>138975036</v>
+        <v>1151</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>1073</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>201</v>
@@ -25274,15 +25412,15 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B7" s="74">
-        <v>1113250378</v>
+        <v>138975036</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>1157</v>
+        <v>201</v>
       </c>
       <c r="D7" s="94">
         <v>42605</v>
@@ -25294,15 +25432,15 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>1159</v>
+        <v>1156</v>
+      </c>
+      <c r="B8" s="74">
+        <v>1113250378</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="94">
         <v>42605</v>
@@ -25314,7 +25452,30 @@
         <v>42789</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D9" s="94">
+        <v>42605</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>909</v>
+      </c>
+      <c r="F9" s="94">
+        <v>42789</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25324,11 +25485,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25338,11 +25499,21 @@
     <col min="3" max="3" width="17.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-    </row>
-    <row r="2" spans="1:3" ht="70.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25352,8 +25523,11 @@
       <c r="C2" s="20" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>545</v>
       </c>
@@ -25364,7 +25538,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>546</v>
       </c>
@@ -25375,7 +25549,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>547</v>
       </c>
@@ -25386,7 +25560,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>548</v>
       </c>
@@ -25397,7 +25571,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>592</v>
       </c>
@@ -25408,11 +25582,11 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>557</v>
       </c>
@@ -25423,7 +25597,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>224</v>
       </c>
@@ -25434,7 +25608,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>590</v>
       </c>
@@ -25445,7 +25619,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>562</v>
       </c>
@@ -25456,7 +25630,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
@@ -25467,7 +25641,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>905</v>
       </c>
@@ -25478,7 +25652,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>564</v>
       </c>
@@ -25489,7 +25663,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -26495,9 +26669,17 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="timePeriod" dxfId="275" priority="1" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="274" priority="2" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -26508,11 +26690,11 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:O211"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -26531,21 +26713,21 @@
     <col min="14" max="14" width="17.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -26588,8 +26770,11 @@
       <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>610</v>
@@ -26625,7 +26810,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -26643,7 +26828,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -26662,7 +26847,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -26677,7 +26862,7 @@
       <c r="M6" s="107"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>1620</v>
       </c>
@@ -26712,7 +26897,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -26729,7 +26914,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>647</v>
@@ -26747,7 +26932,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -26762,7 +26947,7 @@
       <c r="M10" s="107"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>1223</v>
@@ -26802,7 +26987,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -26828,7 +27013,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>209</v>
@@ -26868,7 +27053,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -26898,7 +27083,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>209</v>
@@ -26938,7 +27123,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -28815,76 +29000,76 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I1:I6 I25:I1048576">
-    <cfRule type="timePeriod" dxfId="269" priority="65" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="273" priority="65" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="268" priority="66" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="272" priority="66" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="timePeriod" dxfId="267" priority="23" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="271" priority="23" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I11,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I11,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="266" priority="24" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="270" priority="24" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I11,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I11,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="timePeriod" dxfId="265" priority="13" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="269" priority="13" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I13,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I13,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="264" priority="14" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="268" priority="14" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I13,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I13,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="timePeriod" dxfId="263" priority="12" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="267" priority="12" timePeriod="nextMonth">
       <formula>AND(MONTH(I13)=MONTH(EDATE(TODAY(),0+1)),YEAR(I13)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="timePeriod" dxfId="262" priority="10" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="266" priority="10" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I15,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I15,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="261" priority="11" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="265" priority="11" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I15,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I15,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="timePeriod" dxfId="260" priority="9" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="264" priority="9" timePeriod="nextMonth">
       <formula>AND(MONTH(I15)=MONTH(EDATE(TODAY(),0+1)),YEAR(I15)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I20 I22:I23">
-    <cfRule type="timePeriod" dxfId="259" priority="7" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="263" priority="7" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I16,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I16,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="258" priority="8" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="262" priority="8" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I16,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I16,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="timePeriod" dxfId="257" priority="5" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="261" priority="5" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I21,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I21,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="256" priority="6" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="260" priority="6" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I21,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I21,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="timePeriod" dxfId="255" priority="3" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="259" priority="3" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I24,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I24,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="254" priority="4" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="258" priority="4" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I24,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I24,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10">
-    <cfRule type="timePeriod" dxfId="253" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="257" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I7,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I7,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="252" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="256" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I7,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I7,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28898,7 +29083,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N355"/>
+  <dimension ref="A1:O355"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28922,21 +29107,21 @@
     <col min="14" max="14" width="20.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -28979,8 +29164,11 @@
       <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>70</v>
@@ -29016,7 +29204,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>403</v>
@@ -29056,7 +29244,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>404</v>
@@ -29094,7 +29282,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>1348</v>
@@ -29130,7 +29318,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="84" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>1348</v>
@@ -29170,7 +29358,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>1348</v>
@@ -29198,7 +29386,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>1348</v>
@@ -29226,7 +29414,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>1349</v>
@@ -29254,7 +29442,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="84" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>1349</v>
@@ -29294,7 +29482,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -29316,7 +29504,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="105" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -29356,7 +29544,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="105" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -29380,7 +29568,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="105" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -29404,7 +29592,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="105" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="105" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -36893,406 +37081,406 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I43 I178:I179 I181:I185 I11:I18 I237:I1048576 I174:I176 I127:I128 I198 I200:I224 I80:I87 I38:I40 I123:I124 I1:I4 I21:I35 I113:I121 I139:I157 I46:I59 I130 I187:I193 I92:I104 I74:I77 I163:I172">
-    <cfRule type="timePeriod" dxfId="251" priority="207" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="255" priority="207" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="250" priority="208" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="254" priority="208" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I20">
-    <cfRule type="timePeriod" dxfId="249" priority="205" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="253" priority="205" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I19,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I19,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="248" priority="206" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="252" priority="206" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I19,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I19,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:I109 I112">
-    <cfRule type="timePeriod" dxfId="247" priority="197" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="251" priority="197" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I106,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I106,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="246" priority="198" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="250" priority="198" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I106,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I106,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I186">
-    <cfRule type="timePeriod" dxfId="245" priority="193" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="249" priority="193" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I186,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I186,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="244" priority="194" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="248" priority="194" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I186,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I186,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158:I160">
-    <cfRule type="timePeriod" dxfId="243" priority="163" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="247" priority="163" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I158,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I158,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="242" priority="164" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="246" priority="164" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I158,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I158,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="timePeriod" dxfId="241" priority="161" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="245" priority="161" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I5,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I5,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="240" priority="162" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="244" priority="162" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I5,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I5,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173">
-    <cfRule type="timePeriod" dxfId="239" priority="135" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="243" priority="135" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I173,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I173,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="238" priority="136" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="242" priority="136" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I173,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I173,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="timePeriod" dxfId="237" priority="133" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="241" priority="133" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I41,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I41,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="236" priority="134" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="240" priority="134" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I41,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I41,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="timePeriod" dxfId="235" priority="131" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="239" priority="131" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I42,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I42,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="234" priority="132" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="238" priority="132" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I42,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I42,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I10">
-    <cfRule type="timePeriod" dxfId="233" priority="129" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="237" priority="129" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I8,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I8,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="232" priority="130" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="236" priority="130" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I8,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I8,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:I90">
-    <cfRule type="timePeriod" dxfId="231" priority="127" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="235" priority="127" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I89,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I89,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="230" priority="128" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="234" priority="128" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I89,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I89,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="timePeriod" dxfId="229" priority="125" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="233" priority="125" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I88,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I88,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="228" priority="126" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="232" priority="126" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I88,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I88,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I199">
-    <cfRule type="timePeriod" dxfId="227" priority="119" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="231" priority="119" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I199,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I199,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="226" priority="120" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="230" priority="120" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I199,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I199,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I196">
-    <cfRule type="timePeriod" dxfId="225" priority="105" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="229" priority="105" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I195,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I195,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="224" priority="106" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="228" priority="106" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I195,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I195,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I180">
-    <cfRule type="timePeriod" dxfId="223" priority="101" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="227" priority="101" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I180,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I180,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="222" priority="102" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="226" priority="102" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I180,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I180,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="timePeriod" dxfId="221" priority="99" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="225" priority="99" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I78,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I78,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="220" priority="100" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="224" priority="100" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I78,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I78,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="timePeriod" dxfId="219" priority="97" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="223" priority="97" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I79,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I79,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="218" priority="98" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="222" priority="98" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I79,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I79,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="timePeriod" dxfId="217" priority="93" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="221" priority="93" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I37,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I37,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="216" priority="94" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="220" priority="94" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I37,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I37,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="timePeriod" dxfId="215" priority="91" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="219" priority="91" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I122,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I122,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="214" priority="92" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="218" priority="92" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I122,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I122,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I226">
-    <cfRule type="timePeriod" dxfId="213" priority="87" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="217" priority="87" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I226,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I226,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="212" priority="88" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="216" priority="88" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I226,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I226,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227">
-    <cfRule type="timePeriod" dxfId="211" priority="85" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="215" priority="85" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I227,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I227,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="210" priority="86" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="214" priority="86" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I227,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I227,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227">
-    <cfRule type="timePeriod" dxfId="209" priority="84" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="213" priority="84" timePeriod="nextMonth">
       <formula>AND(MONTH(I227)=MONTH(EDATE(TODAY(),0+1)),YEAR(I227)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228">
-    <cfRule type="timePeriod" dxfId="208" priority="82" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="212" priority="82" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I228,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I228,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="207" priority="83" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="211" priority="83" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I228,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I228,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228">
-    <cfRule type="timePeriod" dxfId="206" priority="81" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="210" priority="81" timePeriod="nextMonth">
       <formula>AND(MONTH(I228)=MONTH(EDATE(TODAY(),0+1)),YEAR(I228)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I229">
-    <cfRule type="timePeriod" dxfId="205" priority="79" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="209" priority="79" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I229,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I229,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="204" priority="80" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="208" priority="80" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I229,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I229,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I229">
-    <cfRule type="timePeriod" dxfId="203" priority="78" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="207" priority="78" timePeriod="nextMonth">
       <formula>AND(MONTH(I229)=MONTH(EDATE(TODAY(),0+1)),YEAR(I229)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I230">
-    <cfRule type="timePeriod" dxfId="202" priority="76" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="206" priority="76" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I230,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I230,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="201" priority="77" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="205" priority="77" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I230,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I230,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I230">
-    <cfRule type="timePeriod" dxfId="200" priority="75" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="204" priority="75" timePeriod="nextMonth">
       <formula>AND(MONTH(I230)=MONTH(EDATE(TODAY(),0+1)),YEAR(I230)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I231:I233 I236">
-    <cfRule type="timePeriod" dxfId="199" priority="65" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="203" priority="65" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I231,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I231,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="198" priority="66" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="202" priority="66" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I231,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I231,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I134">
-    <cfRule type="timePeriod" dxfId="197" priority="61" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="201" priority="61" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I131,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I131,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="196" priority="62" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="200" priority="62" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I131,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I131,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="timePeriod" dxfId="195" priority="59" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="199" priority="59" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I135,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I135,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="194" priority="60" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="198" priority="60" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I135,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I135,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I136:I138">
-    <cfRule type="timePeriod" dxfId="193" priority="57" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="197" priority="57" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I136,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I136,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="192" priority="58" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="196" priority="58" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I136,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I136,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="timePeriod" dxfId="191" priority="55" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="195" priority="55" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I36,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I36,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="190" priority="56" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="194" priority="56" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I36,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I36,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="timePeriod" dxfId="189" priority="47" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="193" priority="47" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I44,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I44,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="188" priority="48" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="192" priority="48" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I44,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I44,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="timePeriod" dxfId="187" priority="45" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="191" priority="45" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I45,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I45,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="186" priority="46" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="190" priority="46" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I45,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I45,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="timePeriod" dxfId="185" priority="43" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="189" priority="43" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I7,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I7,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="184" priority="44" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="188" priority="44" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I7,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I7,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="timePeriod" dxfId="183" priority="41" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="187" priority="41" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I125,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I125,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="182" priority="42" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="186" priority="42" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I125,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I125,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="timePeriod" dxfId="181" priority="39" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="185" priority="39" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I126,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I126,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="180" priority="40" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="184" priority="40" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I126,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I126,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="timePeriod" dxfId="179" priority="37" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="183" priority="37" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I194,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I194,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="178" priority="38" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="182" priority="38" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I194,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I194,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162">
-    <cfRule type="timePeriod" dxfId="177" priority="33" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="181" priority="33" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I162,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I162,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="176" priority="34" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="180" priority="34" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I162,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I162,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161">
-    <cfRule type="timePeriod" dxfId="175" priority="31" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="179" priority="31" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I161,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I161,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="174" priority="32" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="178" priority="32" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I161,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I161,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="timePeriod" dxfId="173" priority="27" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="177" priority="27" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I105,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I105,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="172" priority="28" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="176" priority="28" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I105,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I105,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110:I111">
-    <cfRule type="timePeriod" dxfId="171" priority="25" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="175" priority="25" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I110,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I110,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="170" priority="26" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="174" priority="26" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I110,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I110,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="timePeriod" dxfId="169" priority="21" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="173" priority="21" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I129,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I129,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="168" priority="22" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="172" priority="22" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I129,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I129,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="timePeriod" dxfId="167" priority="19" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="171" priority="19" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I91,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I91,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="166" priority="20" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="170" priority="20" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I91,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I91,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I235">
-    <cfRule type="timePeriod" dxfId="165" priority="17" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="169" priority="17" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I235,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I235,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="164" priority="18" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="168" priority="18" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I235,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I235,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="timePeriod" dxfId="163" priority="11" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="167" priority="11" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I6,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I6,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="162" priority="12" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="166" priority="12" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I6,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I6,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I177">
-    <cfRule type="timePeriod" dxfId="161" priority="9" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="165" priority="9" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I177,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I177,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="160" priority="10" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="164" priority="10" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I177,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I177,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I225">
-    <cfRule type="timePeriod" dxfId="159" priority="7" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="163" priority="7" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I225,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I225,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="158" priority="8" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="162" priority="8" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I225,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I225,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I234">
-    <cfRule type="timePeriod" dxfId="157" priority="5" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="161" priority="5" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I234,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I234,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="156" priority="6" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="160" priority="6" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I234,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I234,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I73">
-    <cfRule type="timePeriod" dxfId="155" priority="3" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="159" priority="3" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I60,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I60,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="154" priority="4" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="158" priority="4" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I60,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I60,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="timePeriod" dxfId="153" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="157" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I197,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I197,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="152" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="156" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I197,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I197,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37306,7 +37494,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
@@ -37330,21 +37518,21 @@
     <col min="14" max="14" width="22.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -37387,8 +37575,11 @@
       <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -37428,7 +37619,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>213</v>
@@ -37468,7 +37659,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>215</v>
@@ -37506,7 +37697,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -37530,7 +37721,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>220</v>
@@ -37564,7 +37755,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="126" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="126" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -37594,7 +37785,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -37618,7 +37809,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -37642,7 +37833,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -37666,7 +37857,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -37690,7 +37881,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -37714,7 +37905,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>1489</v>
@@ -37742,7 +37933,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -37764,7 +37955,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -41377,125 +41568,125 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I35:I41 I58 I1:I31 I43:I44 I66 I54 I46:I51 I68:I1048576">
-    <cfRule type="timePeriod" dxfId="151" priority="59" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="155" priority="59" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="150" priority="60" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="154" priority="60" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I44 I46">
-    <cfRule type="timePeriod" dxfId="149" priority="54" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="153" priority="54" timePeriod="nextMonth">
       <formula>AND(MONTH(I43)=MONTH(EDATE(TODAY(),0+1)),YEAR(I43)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I41 I58 I1:I31 I47:I51 I66 I54 I68:I1048576">
-    <cfRule type="timePeriod" dxfId="148" priority="53" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="152" priority="53" timePeriod="nextMonth">
       <formula>AND(MONTH(I1)=MONTH(EDATE(TODAY(),0+1)),YEAR(I1)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I34">
-    <cfRule type="timePeriod" dxfId="147" priority="48" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="151" priority="48" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I32,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I32,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="146" priority="49" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="150" priority="49" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I32,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I32,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I34">
-    <cfRule type="timePeriod" dxfId="145" priority="47" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="149" priority="47" timePeriod="nextMonth">
       <formula>AND(MONTH(I32)=MONTH(EDATE(TODAY(),0+1)),YEAR(I32)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="timePeriod" dxfId="144" priority="26" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="148" priority="26" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I59,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I59,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="143" priority="27" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="147" priority="27" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I59,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I59,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="timePeriod" dxfId="142" priority="24" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="146" priority="24" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I52,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I52,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="141" priority="25" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="145" priority="25" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I52,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I52,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="timePeriod" dxfId="140" priority="20" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="144" priority="20" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I53,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I53,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="139" priority="21" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="143" priority="21" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I53,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I53,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="timePeriod" dxfId="138" priority="18" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="142" priority="18" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I42,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I42,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="137" priority="19" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="141" priority="19" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I42,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I42,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="timePeriod" dxfId="136" priority="17" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="140" priority="17" timePeriod="nextMonth">
       <formula>AND(MONTH(I42)=MONTH(EDATE(TODAY(),0+1)),YEAR(I42)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I61">
-    <cfRule type="timePeriod" dxfId="135" priority="15" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="139" priority="15" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I60,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I60,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="134" priority="16" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="138" priority="16" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I60,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I60,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I61">
-    <cfRule type="timePeriod" dxfId="133" priority="14" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="137" priority="14" timePeriod="nextMonth">
       <formula>AND(MONTH(I60)=MONTH(EDATE(TODAY(),0+1)),YEAR(I60)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="timePeriod" dxfId="132" priority="12" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="136" priority="12" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I62,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I62,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="131" priority="13" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="135" priority="13" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I62,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I62,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="timePeriod" dxfId="130" priority="10" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="134" priority="10" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I63,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I63,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="129" priority="11" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="133" priority="11" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I63,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I63,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I65">
-    <cfRule type="timePeriod" dxfId="128" priority="8" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="132" priority="8" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I64,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I64,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="127" priority="9" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="131" priority="9" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I64,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I64,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I65">
-    <cfRule type="timePeriod" dxfId="126" priority="7" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="130" priority="7" timePeriod="nextMonth">
       <formula>AND(MONTH(I64)=MONTH(EDATE(TODAY(),0+1)),YEAR(I64)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="timePeriod" dxfId="125" priority="2" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="129" priority="2" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I67,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I67,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="124" priority="3" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="128" priority="3" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I67,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I67,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="timePeriod" dxfId="123" priority="1" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="127" priority="1" timePeriod="nextMonth">
       <formula>AND(MONTH(I67)=MONTH(EDATE(TODAY(),0+1)),YEAR(I67)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41513,7 +41704,7 @@
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41534,18 +41725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -41589,6 +41780,9 @@
       </c>
       <c r="N2" s="16" t="s">
         <v>418</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="42" x14ac:dyDescent="0.4">
@@ -46392,111 +46586,111 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I1:I13 I16:I18 I73:I74 I80:I1048576 I62:I70 I24:I41">
-    <cfRule type="timePeriod" dxfId="122" priority="45" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="126" priority="45" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="121" priority="46" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="125" priority="46" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I49">
-    <cfRule type="timePeriod" dxfId="120" priority="43" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="124" priority="43" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I44,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I44,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="119" priority="44" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="123" priority="44" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I44,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I44,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I23">
-    <cfRule type="timePeriod" dxfId="118" priority="38" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="122" priority="38" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I19,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I19,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="117" priority="39" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="121" priority="39" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I19,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I19,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51 I53:I54">
-    <cfRule type="timePeriod" dxfId="116" priority="32" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="120" priority="32" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I50,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I50,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="115" priority="33" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="119" priority="33" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I50,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I50,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="timePeriod" dxfId="114" priority="30" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="118" priority="30" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I55,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I55,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="113" priority="31" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="117" priority="31" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I55,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I55,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="timePeriod" dxfId="112" priority="28" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="116" priority="28" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I14,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I14,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="111" priority="29" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="115" priority="29" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I14,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I14,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="timePeriod" dxfId="110" priority="26" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="114" priority="26" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I15,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I15,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="109" priority="27" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="113" priority="27" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I15,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I15,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I60">
-    <cfRule type="timePeriod" dxfId="108" priority="12" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="112" priority="12" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I56,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I56,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="107" priority="13" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="111" priority="13" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I56,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I56,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="timePeriod" dxfId="106" priority="10" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="110" priority="10" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I61,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I61,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="105" priority="11" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="109" priority="11" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I61,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I61,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="timePeriod" dxfId="104" priority="8" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="108" priority="8" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I71,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I71,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="103" priority="9" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="107" priority="9" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I71,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I71,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="timePeriod" dxfId="102" priority="7" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="106" priority="7" timePeriod="nextMonth">
       <formula>AND(MONTH(I71)=MONTH(EDATE(TODAY(),0+1)),YEAR(I71)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="timePeriod" dxfId="101" priority="5" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="105" priority="5" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I72,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I72,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="100" priority="6" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="104" priority="6" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I72,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I72,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="timePeriod" dxfId="99" priority="3" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="103" priority="3" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I52,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I52,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="98" priority="4" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="102" priority="4" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I52,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I52,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:I79">
-    <cfRule type="timePeriod" dxfId="97" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="101" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I75,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I75,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="96" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="100" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I75,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I75,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46508,11 +46702,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46530,98 +46724,77 @@
     <col min="14" max="14" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42619</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I2" s="7">
-        <v>42710</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="27">
-        <v>42064</v>
-      </c>
-      <c r="L2" s="103">
-        <v>42430</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -46639,19 +46812,27 @@
         <v>42710</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="K3" s="27">
+        <v>42064</v>
+      </c>
+      <c r="L3" s="103">
+        <v>42430</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>240</v>
+      <c r="C4" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -46674,100 +46855,100 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7">
+        <v>42619</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42710</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="G6" s="7">
-        <v>42677</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42769</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="2"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>242</v>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G7" s="7">
-        <v>42627</v>
+        <v>42677</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>752</v>
+        <v>365</v>
       </c>
       <c r="I7" s="7">
-        <v>42718</v>
+        <v>42769</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -46785,19 +46966,19 @@
         <v>42718</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>240</v>
+      <c r="C9" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -46820,29 +47001,29 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G10" s="7">
-        <v>42440</v>
+        <v>42627</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1206</v>
+        <v>752</v>
       </c>
       <c r="I10" s="7">
-        <v>42805</v>
+        <v>42718</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="7"/>
@@ -46850,29 +47031,29 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="G11" s="7">
-        <v>42677</v>
+        <v>42440</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>365</v>
+        <v>1206</v>
       </c>
       <c r="I11" s="7">
-        <v>42769</v>
+        <v>42805</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="7"/>
@@ -46880,53 +47061,53 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G12" s="7">
+        <v>42677</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42769</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="G12" s="7">
-        <v>42451</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42816</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="2" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="G13" s="7">
         <v>42451</v>
       </c>
@@ -46937,19 +47118,21 @@
         <v>42816</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="105"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+      <c r="M13" s="105"/>
+      <c r="N13" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
-        <v>1299</v>
+        <v>284</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -46970,14 +47153,14 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -46998,60 +47181,56 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>270</v>
+        <v>1299</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="7">
+        <v>42451</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" s="7">
+        <v>42816</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="105"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="105"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="63" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="G17" s="7">
-        <v>42405</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I17" s="7">
-        <v>42771</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="105"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="M17" s="105"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="63" x14ac:dyDescent="0.4">
@@ -47061,56 +47240,54 @@
         <v>272</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1607</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
+      <c r="F18" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G18" s="7">
+        <v>42405</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" s="7">
+        <v>42771</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="105"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="63" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>291</v>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>292</v>
+        <v>1607</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="7">
-        <v>42571</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42936</v>
-      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="2"/>
       <c r="K19" s="105"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="63" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>290</v>
@@ -47119,7 +47296,7 @@
         <v>291</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>926</v>
+        <v>292</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -47135,51 +47312,49 @@
         <v>42936</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="84" x14ac:dyDescent="0.4">
+      <c r="M20" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1364</v>
+      <c r="B21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>745</v>
+        <v>926</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>1306</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="7">
-        <v>42627</v>
+        <v>42571</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1206</v>
+        <v>752</v>
       </c>
       <c r="I21" s="7">
-        <v>42992</v>
+        <v>42936</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="105"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="105" t="s">
-        <v>1366</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>1365</v>
-      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="84" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>1364</v>
@@ -47191,7 +47366,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G22" s="7">
         <v>42627</v>
@@ -47203,17 +47378,19 @@
         <v>42992</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="105"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="105" t="s">
+        <v>1366</v>
+      </c>
       <c r="N22" s="2" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="84" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1364</v>
@@ -47225,7 +47402,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G23" s="7">
         <v>42627</v>
@@ -47247,130 +47424,138 @@
     <row r="24" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1318</v>
+        <v>1364</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1319</v>
+        <v>745</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G24" s="7">
+        <v>42627</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I24" s="7">
+        <v>42992</v>
+      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="105"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="113" t="s">
-        <v>1342</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1318</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="105"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="113" t="s">
+        <v>1342</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2">
-        <v>601051369</v>
-      </c>
-      <c r="G28" s="7">
-        <v>42569</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28" s="7">
-        <v>42934</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" ht="63" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="42" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>601051369</v>
+      </c>
+      <c r="G29" s="7">
+        <v>42569</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="7">
+        <v>42934</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="63" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="G29" s="7">
-        <v>42079</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>740</v>
+      </c>
       <c r="G30" s="7">
-        <v>42688</v>
+        <v>42079</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42780</v>
+        <v>303</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -47382,11 +47567,11 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>179</v>
+      <c r="D31" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="7">
@@ -47396,7 +47581,7 @@
         <v>1206</v>
       </c>
       <c r="I31" s="7">
-        <v>43053</v>
+        <v>42780</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -47404,46 +47589,54 @@
       <c r="M31" s="4"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="84" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>809</v>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="7">
-        <v>42685</v>
+        <v>42688</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="I32" s="7">
+        <v>43053</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="84" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="7">
+        <v>42685</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I33" s="7">
         <v>42866</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="42" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -47453,175 +47646,204 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
-        <v>1591</v>
+        <v>811</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="7">
-        <v>42685</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I34" s="7">
-        <v>42866</v>
-      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
+    <row r="35" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="7">
+        <v>42685</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I35" s="7">
+        <v>42866</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="timePeriod" dxfId="95" priority="66" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="timePeriod" dxfId="99" priority="68" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="94" priority="67" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="98" priority="69" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I2,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I2,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="timePeriod" dxfId="93" priority="64" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I6,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I6,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="92" priority="65" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I6,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I6,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I11">
-    <cfRule type="timePeriod" dxfId="91" priority="58" timePeriod="nextWeek">
+  <conditionalFormatting sqref="I7">
+    <cfRule type="timePeriod" dxfId="97" priority="66" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I7,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I7,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="90" priority="59" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="96" priority="67" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I7,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I7,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="timePeriod" dxfId="89" priority="50" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I12,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I12,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <conditionalFormatting sqref="I8:I12">
+    <cfRule type="timePeriod" dxfId="95" priority="60" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I8,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I8,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="88" priority="51" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I12,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I12,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="94" priority="61" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I8,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I8,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I18">
-    <cfRule type="timePeriod" dxfId="87" priority="48" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I16,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I16,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <conditionalFormatting sqref="I13:I16">
+    <cfRule type="timePeriod" dxfId="93" priority="52" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I13,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I13,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="86" priority="49" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I16,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I16,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="92" priority="53" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I13,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I13,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="timePeriod" dxfId="85" priority="46" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I19,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I19,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <conditionalFormatting sqref="I17:I19">
+    <cfRule type="timePeriod" dxfId="91" priority="50" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I17,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I17,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="84" priority="47" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I19,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I19,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="timePeriod" dxfId="83" priority="44" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I21,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I21,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="82" priority="45" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I21,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I21,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I25">
-    <cfRule type="timePeriod" dxfId="81" priority="42" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I24,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I24,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="80" priority="43" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I24,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I24,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="timePeriod" dxfId="79" priority="37" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I28,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I28,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="78" priority="38" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I28,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I28,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="timePeriod" dxfId="77" priority="36" timePeriod="nextMonth">
-      <formula>AND(MONTH(I28)=MONTH(EDATE(TODAY(),0+1)),YEAR(I28)=YEAR(EDATE(TODAY(),0+1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
-    <cfRule type="timePeriod" dxfId="76" priority="24" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="75" priority="25" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I2,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I2,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="timePeriod" dxfId="74" priority="18" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I5,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I5,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="73" priority="19" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I5,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I5,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="90" priority="51" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I17,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I17,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="timePeriod" dxfId="72" priority="16" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="89" priority="48" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I20,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I20,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="71" priority="17" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="88" priority="49" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I20,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I20,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="timePeriod" dxfId="70" priority="14" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="87" priority="46" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I22,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I22,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="69" priority="15" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="86" priority="47" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I22,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I22,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34">
-    <cfRule type="timePeriod" dxfId="68" priority="7" timePeriod="nextWeek">
+  <conditionalFormatting sqref="I25:I26">
+    <cfRule type="timePeriod" dxfId="85" priority="44" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I25,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I25,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="84" priority="45" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I25,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I25,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="timePeriod" dxfId="83" priority="39" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="82" priority="40" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I29,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I29,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="timePeriod" dxfId="81" priority="38" timePeriod="nextMonth">
+      <formula>AND(MONTH(I29)=MONTH(EDATE(TODAY(),0+1)),YEAR(I29)=YEAR(EDATE(TODAY(),0+1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I5">
+    <cfRule type="timePeriod" dxfId="80" priority="26" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="79" priority="27" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="timePeriod" dxfId="78" priority="20" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I6,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I6,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="77" priority="21" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I6,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I6,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="timePeriod" dxfId="76" priority="18" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I21,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I21,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="75" priority="19" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I21,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I21,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="timePeriod" dxfId="74" priority="16" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I23,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I23,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="73" priority="17" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I23,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I23,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I35">
+    <cfRule type="timePeriod" dxfId="72" priority="9" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I34,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I34,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="71" priority="10" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I34,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I34,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I35">
+    <cfRule type="timePeriod" dxfId="70" priority="8" timePeriod="nextMonth">
+      <formula>AND(MONTH(I34)=MONTH(EDATE(TODAY(),0+1)),YEAR(I34)=YEAR(EDATE(TODAY(),0+1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I32">
+    <cfRule type="timePeriod" dxfId="69" priority="14" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I30,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I30,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="68" priority="15" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I30,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I30,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="timePeriod" dxfId="67" priority="6" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I33,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I33,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="67" priority="8" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="66" priority="7" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I33,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I33,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34">
-    <cfRule type="timePeriod" dxfId="66" priority="6" timePeriod="nextMonth">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="timePeriod" dxfId="65" priority="5" timePeriod="nextMonth">
       <formula>AND(MONTH(I33)=MONTH(EDATE(TODAY(),0+1)),YEAR(I33)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I31">
-    <cfRule type="timePeriod" dxfId="65" priority="12" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="timePeriod" dxfId="64" priority="3" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I24,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I24,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="64" priority="13" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I29,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I29,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="63" priority="4" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I24,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I24,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="timePeriod" dxfId="63" priority="4" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I32,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I32,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="timePeriod" dxfId="62" priority="1" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="62" priority="5" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I32,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I32,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="timePeriod" dxfId="61" priority="3" timePeriod="nextMonth">
-      <formula>AND(MONTH(I32)=MONTH(EDATE(TODAY(),0+1)),YEAR(I32)=YEAR(EDATE(TODAY(),0+1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="timePeriod" dxfId="60" priority="1" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(I23,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I23,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="59" priority="2" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I23,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I23,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    <cfRule type="timePeriod" dxfId="61" priority="2" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47634,7 +47856,7 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
@@ -47657,21 +47879,21 @@
     <col min="14" max="14" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:14" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -47714,8 +47936,11 @@
       <c r="N2" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>718</v>
@@ -47748,7 +47973,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>828</v>
@@ -47771,7 +47996,7 @@
       <c r="L4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>829</v>
@@ -47802,7 +48027,7 @@
       <c r="L5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>830</v>
@@ -47833,7 +48058,7 @@
       <c r="L6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>831</v>
@@ -47864,7 +48089,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>1637</v>
@@ -47893,7 +48118,7 @@
       <c r="L8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1479</v>
@@ -47922,7 +48147,7 @@
       <c r="L9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>1639</v>
@@ -47951,7 +48176,7 @@
       <c r="L10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -47966,7 +48191,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -47981,7 +48206,7 @@
       <c r="L12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>865</v>
@@ -48013,7 +48238,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>1109</v>
@@ -48044,7 +48269,7 @@
       <c r="L14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -48059,7 +48284,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>1609</v>
@@ -52324,222 +52549,222 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I31 I35 I45:I48 I39:I40 I42:I43">
-    <cfRule type="timePeriod" dxfId="58" priority="68" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="60" priority="68" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I31,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I31,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="57" priority="69" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="59" priority="69" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I31,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I31,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="timePeriod" dxfId="56" priority="66" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="58" priority="66" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I36,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I36,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="55" priority="67" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="57" priority="67" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I36,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I36,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="timePeriod" dxfId="54" priority="64" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="56" priority="64" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I37,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I37,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="53" priority="65" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="55" priority="65" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I37,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I37,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="timePeriod" dxfId="52" priority="62" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="54" priority="62" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I38,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I38,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="51" priority="63" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="53" priority="63" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I38,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I38,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="timePeriod" dxfId="50" priority="60" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="52" priority="60" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I41,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I41,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="49" priority="61" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="51" priority="61" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I41,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I41,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="timePeriod" dxfId="48" priority="58" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="50" priority="58" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I32,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I32,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="47" priority="59" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="49" priority="59" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I32,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I32,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="timePeriod" dxfId="46" priority="56" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="48" priority="56" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I33,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I33,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="45" priority="57" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="47" priority="57" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I33,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I33,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="timePeriod" dxfId="44" priority="54" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="46" priority="54" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I34,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I34,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="43" priority="55" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="45" priority="55" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I34,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I34,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="timePeriod" dxfId="42" priority="52" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="44" priority="52" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I44,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I44,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="41" priority="53" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="43" priority="53" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I44,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I44,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I58">
-    <cfRule type="timePeriod" dxfId="40" priority="50" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="42" priority="50" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I49,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I49,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="39" priority="51" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="41" priority="51" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I49,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I49,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I62">
-    <cfRule type="timePeriod" dxfId="38" priority="48" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="40" priority="48" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I60,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I60,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="37" priority="49" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="39" priority="49" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I60,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I60,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="timePeriod" dxfId="36" priority="46" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="38" priority="46" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I63,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I63,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="35" priority="47" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="37" priority="47" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I63,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I63,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="timePeriod" dxfId="34" priority="45" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="36" priority="45" timePeriod="nextMonth">
       <formula>AND(MONTH(I60)=MONTH(EDATE(TODAY(),0+1)),YEAR(I60)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I63">
-    <cfRule type="timePeriod" dxfId="33" priority="44" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="35" priority="44" timePeriod="nextMonth">
       <formula>AND(MONTH(I60)=MONTH(EDATE(TODAY(),0+1)),YEAR(I60)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I65">
-    <cfRule type="timePeriod" dxfId="32" priority="42" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="34" priority="42" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I64,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I64,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="31" priority="43" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="33" priority="43" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I64,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I64,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I76">
-    <cfRule type="timePeriod" dxfId="30" priority="40" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="32" priority="40" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I66,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I66,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="29" priority="41" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="31" priority="41" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I66,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I66,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I76">
-    <cfRule type="timePeriod" dxfId="28" priority="39" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="30" priority="39" timePeriod="nextMonth">
       <formula>AND(MONTH(I66)=MONTH(EDATE(TODAY(),0+1)),YEAR(I66)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:I80">
-    <cfRule type="timePeriod" dxfId="27" priority="31" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="29" priority="31" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I79,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I79,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="26" priority="32" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="28" priority="32" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I79,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I79,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:I80">
-    <cfRule type="timePeriod" dxfId="25" priority="30" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="27" priority="30" timePeriod="nextMonth">
       <formula>AND(MONTH(I79)=MONTH(EDATE(TODAY(),0+1)),YEAR(I79)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="timePeriod" dxfId="24" priority="25" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="26" priority="25" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I85,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I85,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="23" priority="26" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="25" priority="26" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I85,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I85,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="timePeriod" dxfId="22" priority="23" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="24" priority="23" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I84,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I84,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="21" priority="24" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="23" priority="24" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I84,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I84,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="timePeriod" dxfId="20" priority="21" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="22" priority="21" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I88,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I88,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="19" priority="22" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="21" priority="22" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I88,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I88,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="timePeriod" dxfId="18" priority="19" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="20" priority="19" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I86,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I86,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="17" priority="20" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="19" priority="20" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I86,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I86,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="timePeriod" dxfId="16" priority="15" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="18" priority="15" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I89,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I89,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="16" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="17" priority="16" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I89,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I89,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="timePeriod" dxfId="14" priority="13" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="16" priority="13" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I90,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I90,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="13" priority="14" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="15" priority="14" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I90,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I90,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="timePeriod" dxfId="12" priority="11" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="14" priority="11" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I87,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I87,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="11" priority="12" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="13" priority="12" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I87,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I87,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:I94">
-    <cfRule type="timePeriod" dxfId="10" priority="9" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="12" priority="9" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I91,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I91,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="10" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="11" priority="10" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I91,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I91,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:I97">
-    <cfRule type="timePeriod" dxfId="8" priority="3" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="10" priority="3" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I95,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I95,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="7" priority="4" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="9" priority="4" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I95,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I95,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I59,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I59,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="7" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I59,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I59,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52553,12 +52778,12 @@
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:P265"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52579,21 +52804,21 @@
     <col min="15" max="15" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:16" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -52639,8 +52864,11 @@
       <c r="O2" s="16" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.4">
+      <c r="P2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -52673,7 +52901,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -52701,7 +52929,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>318</v>
       </c>
@@ -52731,7 +52959,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>437</v>
@@ -52759,7 +52987,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -52771,7 +52999,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -52783,7 +53011,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -52795,7 +53023,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -52807,7 +53035,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -52819,7 +53047,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -52831,7 +53059,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -52843,7 +53071,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -52855,7 +53083,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -52867,7 +53095,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -55873,10 +56101,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
+++ b/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Items for multiple tests" sheetId="4" r:id="rId1"/>
@@ -26473,13 +26473,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26687,6 +26687,14 @@
       <c r="G9">
         <v>7</v>
       </c>
+    </row>
+    <row r="10" spans="1:10" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31525,7 +31533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -31630,7 +31638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -31717,7 +31725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -31851,7 +31859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -32316,7 +32324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -34784,7 +34792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -34815,7 +34823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -34896,7 +34904,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -34925,7 +34933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -50937,7 +50945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1330</v>
@@ -52451,7 +52459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="105" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1411</v>
@@ -52698,7 +52706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>1453</v>
@@ -55433,7 +55441,7 @@
   </sheetPr>
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>

--- a/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
+++ b/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
@@ -31533,7 +31533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -31638,7 +31638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -31725,7 +31725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -31859,7 +31859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -32324,7 +32324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -34792,7 +34792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -34823,7 +34823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -34904,7 +34904,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -34933,7 +34933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -50945,7 +50945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1330</v>
@@ -52459,7 +52459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="105" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1411</v>
@@ -52648,7 +52648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
         <v>1407</v>
@@ -52706,7 +52706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>1453</v>

--- a/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
+++ b/Calibration_TMA_SOP Schedule_Master Form 101359.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24840" windowHeight="12720" tabRatio="912" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Items for multiple tests" sheetId="4" r:id="rId1"/>
@@ -26475,7 +26475,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -31533,7 +31533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -31638,7 +31638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -31725,7 +31725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="42" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -31859,7 +31859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -32324,7 +32324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -34792,7 +34792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -34823,7 +34823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -34904,7 +34904,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -34933,7 +34933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" ht="42" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -49095,9 +49095,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52459,7 +52459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="105" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1411</v>
@@ -52648,7 +52648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
         <v>1407</v>
@@ -52706,7 +52706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="63" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="84" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>1453</v>
